--- a/brasil-clubes-rank-2024/tabelas/Copa dos Campeões Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Copa dos Campeões Rank.xlsx
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1533.33</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1341.67</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>638.89</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="6">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>613.33</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>447.22</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="8">
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>191.67</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>166.11</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="10">
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>127.78</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>127.78</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="12">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>102.22</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>102.22</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>63.89</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="15">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>63.89</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="16">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="17">
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="18">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="19">
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="20">
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="21">
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>38.33</v>
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>
